--- a/Docs/Project_Plan.xlsx
+++ b/Docs/Project_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengzhang/OneDrive - University of Canterbury/Attachments/UC/semester_2/DATA422 Wrangling/Wrangling_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waqas\Documents\GitHub\Data422-project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A2A7C103-1695-D242-83EA-F02B2E178873}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B4ED5E20-AC0F-B343-947F-E2EAEFCA2C9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E14486-9DA3-46C1-A5E6-3DA873828C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="6" xr2:uid="{2402581D-E4A6-1A48-B9ED-88D3687507ED}"/>
+    <workbookView xWindow="-28920" yWindow="-1995" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{2402581D-E4A6-1A48-B9ED-88D3687507ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -189,25 +189,25 @@
     <t>Sarah</t>
   </si>
   <si>
-    <t>1. Online database to find dada;
-2. Preparing R code for crawling data on line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Preparing R code for crawling data on line;
-2. Online database to find dada. </t>
-  </si>
-  <si>
-    <t>1. Online database to find dada; 
-2. Preparing Julia code for crawling data on line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Preparing Julia code for crawling data on line;
-2. Online database to find dada, </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Email stores to ask for data; 
 2.Preparing Julia code for crawling data on line;
-3. Online database to find dada; </t>
+3. Online database to find data; </t>
+  </si>
+  <si>
+    <t>1. Online database to find data;
+2. Preparing R code for crawling data on line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Preparing R code for crawling data on line;
+2. Online database to find data. </t>
+  </si>
+  <si>
+    <t>1. Online database to find data; 
+2. Preparing Julia code for crawling data on line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Preparing Julia code for crawling data on line;
+2. Online database to find data, </t>
   </si>
 </sst>
 </file>
@@ -692,13 +692,13 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -745,7 +745,7 @@
       <c r="AO5" s="14"/>
       <c r="AP5" s="14"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>35</v>
       </c>
@@ -873,7 +873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -950,7 +950,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -970,16 +970,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>39</v>
       </c>
@@ -987,7 +987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>41</v>
       </c>
@@ -998,7 +998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -1006,10 +1006,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>43</v>
       </c>
@@ -1017,10 +1017,10 @@
         <v>46</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>45</v>
       </c>
@@ -1028,10 +1028,10 @@
         <v>46</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>47</v>
       </c>
@@ -1039,10 +1039,10 @@
         <v>46</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>49</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1066,13 +1066,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1102,13 +1102,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,12 +1135,12 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1173,9 +1173,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,16 +1213,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D851E1A5-2BB0-874F-87E2-582C9F25CE9B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1233,22 +1233,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1262,9 +1262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7CD839-D5D7-0043-8E95-DCCC7ACC00E3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
